--- a/hardware/raspberry pi voltmeter parts.xlsx
+++ b/hardware/raspberry pi voltmeter parts.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9048"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Total cost" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171026" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="86">
   <si>
     <t>Part</t>
   </si>
@@ -267,16 +268,31 @@
   </si>
   <si>
     <t>http://www.farnell.com/datasheets/630401.pdf?_ga=1.13329079.1625180374.1477948619</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Order note</t>
+  </si>
+  <si>
+    <t>obtain thru uni.</t>
+  </si>
+  <si>
+    <t>Ordered 01/11/2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
+    <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -330,7 +346,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -611,20 +628,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:O23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" s="1" customFormat="1">
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,8 +690,11 @@
       <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -705,18 +728,24 @@
       <c r="K3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="2">
+        <f>F3*G3</f>
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -750,18 +779,24 @@
       <c r="K4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2" t="s">
+      <c r="L4" s="2">
+        <f t="shared" ref="L4:L23" si="0">F4*G4</f>
+        <v>9.85</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -793,18 +828,21 @@
       <c r="K5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
+      <c r="L5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -836,18 +874,21 @@
       <c r="K6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2" t="s">
+      <c r="L6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -879,18 +920,21 @@
       <c r="K7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2" t="s">
+      <c r="L7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -924,18 +968,24 @@
       <c r="K8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2" t="s">
+      <c r="L8" s="2">
+        <f t="shared" si="0"/>
+        <v>4.59</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="4" t="s">
         <v>30</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -965,18 +1015,21 @@
       <c r="K9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2" t="s">
+      <c r="L9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1006,18 +1059,21 @@
       <c r="K10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2" t="s">
+      <c r="L10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1051,18 +1107,24 @@
       <c r="K11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2" t="s">
+      <c r="L11" s="2">
+        <f t="shared" si="0"/>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="15">
+      <c r="P11" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1096,18 +1158,24 @@
       <c r="K12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2" t="s">
+      <c r="L12" s="2">
+        <f t="shared" si="0"/>
+        <v>80.199999999999989</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="4" t="s">
         <v>30</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1135,18 +1203,21 @@
       <c r="K13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2" t="s">
+      <c r="L13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1174,18 +1245,21 @@
       <c r="K14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2" t="s">
+      <c r="L14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="4" t="s">
         <v>30</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -1219,8 +1293,12 @@
       <c r="K15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="15">
+      <c r="L15" s="2">
+        <f t="shared" si="0"/>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
@@ -1254,14 +1332,21 @@
       <c r="K16" t="s">
         <v>49</v>
       </c>
+      <c r="L16" s="2">
+        <f t="shared" si="0"/>
+        <v>27.7</v>
+      </c>
       <c r="N16" s="4" t="s">
         <v>50</v>
       </c>
       <c r="O16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="15">
+      <c r="P16" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1295,14 +1380,21 @@
       <c r="K17" t="s">
         <v>56</v>
       </c>
+      <c r="L17" s="2">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
       <c r="N17" s="4" t="s">
         <v>57</v>
       </c>
       <c r="O17" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="15">
+      <c r="P17" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1336,14 +1428,21 @@
       <c r="K18" t="s">
         <v>59</v>
       </c>
+      <c r="L18" s="2">
+        <f t="shared" si="0"/>
+        <v>28.42</v>
+      </c>
       <c r="N18" s="4" t="s">
         <v>60</v>
       </c>
       <c r="O18" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="15">
+      <c r="P18" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1377,14 +1476,21 @@
       <c r="K19" t="s">
         <v>62</v>
       </c>
+      <c r="L19" s="2">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
       <c r="N19" s="4" t="s">
         <v>63</v>
       </c>
       <c r="O19" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="15">
+      <c r="P19" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1418,6 +1524,10 @@
       <c r="K20" t="s">
         <v>69</v>
       </c>
+      <c r="L20" s="2">
+        <f t="shared" si="0"/>
+        <v>23.34</v>
+      </c>
       <c r="M20" s="4" t="s">
         <v>70</v>
       </c>
@@ -1427,8 +1537,11 @@
       <c r="O20" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="15">
+      <c r="P20" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1462,6 +1575,10 @@
       <c r="K21" t="s">
         <v>74</v>
       </c>
+      <c r="L21" s="2">
+        <f t="shared" si="0"/>
+        <v>37.049999999999997</v>
+      </c>
       <c r="M21" s="4" t="s">
         <v>75</v>
       </c>
@@ -1471,8 +1588,11 @@
       <c r="O21" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="15">
+      <c r="P21" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1506,14 +1626,21 @@
       <c r="K22" t="s">
         <v>77</v>
       </c>
+      <c r="L22" s="2">
+        <f t="shared" si="0"/>
+        <v>20.049999999999997</v>
+      </c>
       <c r="N22" s="4" t="s">
         <v>78</v>
       </c>
       <c r="O22" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="15">
+      <c r="P22" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1547,41 +1674,107 @@
       <c r="K23" t="s">
         <v>79</v>
       </c>
+      <c r="L23" s="2">
+        <f t="shared" si="0"/>
+        <v>16.25</v>
+      </c>
       <c r="N23" s="4" t="s">
         <v>80</v>
       </c>
       <c r="O23" t="s">
         <v>42</v>
       </c>
+      <c r="P23" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H17" r:id="rId5" xr:uid="{BD3E5875-E589-479F-A6A7-17D999B3BF91}"/>
-    <hyperlink ref="N18" r:id="rId6" xr:uid="{0DAED890-EF9A-4018-8FDF-4D0B0FE13902}"/>
-    <hyperlink ref="N17" r:id="rId7" xr:uid="{1CED803D-3693-4AF4-BF47-B06167C4DB97}"/>
-    <hyperlink ref="H18" r:id="rId8" xr:uid="{CBF8972F-C0C8-4C36-8C16-FE669A180F85}"/>
-    <hyperlink ref="N19" r:id="rId9" xr:uid="{8C6FA8AA-4F32-4DB9-A3CD-09FA9DCC9E00}"/>
-    <hyperlink ref="H19" r:id="rId10" xr:uid="{0B3BB4DC-4D25-4108-8F0A-6253535DE2D9}"/>
-    <hyperlink ref="H12" r:id="rId11" xr:uid="{172C90BC-1A58-4D3C-9D1E-43E745C7273D}"/>
-    <hyperlink ref="H20" r:id="rId12" xr:uid="{F42B7BE3-4577-4A5B-B0FF-6C7B29654C02}"/>
-    <hyperlink ref="N21" r:id="rId13" xr:uid="{4D7D47DC-AC3E-4809-ACB6-9354F8BF5B1E}"/>
-    <hyperlink ref="N22" r:id="rId14" xr:uid="{1345BE81-EE5D-47D9-995B-E6ED18977F20}"/>
-    <hyperlink ref="H21" r:id="rId15" xr:uid="{E8FC66DD-52DA-49D7-BB41-A633F6BAF35D}"/>
-    <hyperlink ref="H22" r:id="rId16" xr:uid="{87195919-32F7-45CA-8728-662B4ECE6109}"/>
-    <hyperlink ref="N20" r:id="rId17" xr:uid="{AC15FA8F-7A43-4D14-B27A-56F6C150FFDB}"/>
-    <hyperlink ref="M20" r:id="rId18" xr:uid="{CF21E993-CBB2-4AD3-BD11-DBD4C72F05CE}"/>
-    <hyperlink ref="H23" r:id="rId19" xr:uid="{E558DD61-CB40-40C2-9195-489FE0C8BAC6}"/>
-    <hyperlink ref="N23" r:id="rId20" xr:uid="{1F4D2F87-7295-4CCC-B3B9-7F7B25753B69}"/>
-    <hyperlink ref="M21" r:id="rId21" xr:uid="{05D7429F-B0BF-4336-A883-A40AB3EB2C55}"/>
-    <hyperlink ref="H16" r:id="rId22" xr:uid="{1E057937-3AC9-4E41-85E5-61487F41FAE9}"/>
-    <hyperlink ref="N16" r:id="rId23" xr:uid="{215010A5-FDB5-4B2E-9684-2B47C4153408}"/>
-    <hyperlink ref="H15" r:id="rId24" xr:uid="{A2DC4190-E9B6-434C-A247-5C9EF574A3F4}"/>
+    <hyperlink ref="H11" r:id="rId1"/>
+    <hyperlink ref="H8" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="H3" r:id="rId4"/>
+    <hyperlink ref="H17" r:id="rId5"/>
+    <hyperlink ref="N18" r:id="rId6"/>
+    <hyperlink ref="N17" r:id="rId7"/>
+    <hyperlink ref="H18" r:id="rId8"/>
+    <hyperlink ref="N19" r:id="rId9"/>
+    <hyperlink ref="H19" r:id="rId10"/>
+    <hyperlink ref="H12" r:id="rId11"/>
+    <hyperlink ref="H20" r:id="rId12"/>
+    <hyperlink ref="N21" r:id="rId13"/>
+    <hyperlink ref="N22" r:id="rId14"/>
+    <hyperlink ref="H21" r:id="rId15"/>
+    <hyperlink ref="H22" r:id="rId16"/>
+    <hyperlink ref="N20" r:id="rId17"/>
+    <hyperlink ref="M20" r:id="rId18"/>
+    <hyperlink ref="H23" r:id="rId19"/>
+    <hyperlink ref="N23" r:id="rId20"/>
+    <hyperlink ref="M21" r:id="rId21"/>
+    <hyperlink ref="H16" r:id="rId22"/>
+    <hyperlink ref="N16" r:id="rId23"/>
+    <hyperlink ref="H15" r:id="rId24"/>
+    <hyperlink ref="N3" r:id="rId25"/>
+    <hyperlink ref="N4" r:id="rId26"/>
+    <hyperlink ref="N6" r:id="rId27"/>
+    <hyperlink ref="N8" r:id="rId28"/>
+    <hyperlink ref="N10" r:id="rId29"/>
+    <hyperlink ref="N12" r:id="rId30"/>
+    <hyperlink ref="N13" r:id="rId31"/>
+    <hyperlink ref="N14" r:id="rId32"/>
+    <hyperlink ref="N5" r:id="rId33"/>
+    <hyperlink ref="N7" r:id="rId34"/>
+    <hyperlink ref="N9" r:id="rId35"/>
+    <hyperlink ref="N11" r:id="rId36"/>
+    <hyperlink ref="M3" r:id="rId37"/>
+    <hyperlink ref="M4" r:id="rId38"/>
+    <hyperlink ref="M6" r:id="rId39"/>
+    <hyperlink ref="M8" r:id="rId40"/>
+    <hyperlink ref="M9" r:id="rId41"/>
+    <hyperlink ref="M10" r:id="rId42"/>
+    <hyperlink ref="M11" r:id="rId43"/>
+    <hyperlink ref="M13" r:id="rId44"/>
+    <hyperlink ref="M14" r:id="rId45"/>
+    <hyperlink ref="M5" r:id="rId46"/>
+    <hyperlink ref="M7" r:id="rId47"/>
+    <hyperlink ref="M12" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>SUM(Sheet1!L:L)</f>
+        <v>452.09999999999997</v>
+      </c>
+      <c r="C2" s="6">
+        <v>42675</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>